--- a/Pessoas cadastradas.xlsx
+++ b/Pessoas cadastradas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aprendizados - Estudos\Analise e Desenvolvimento de Sistemas\2023 - 1\Workspace POO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aprendizados - Estudos\Analise e Desenvolvimento de Sistemas\2023 - 1\Workspace POO\TrabalhoSemestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EC5390E-699D-4671-93AB-43BEBA35A538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5E4467-6774-4ABC-9CF0-C253A82E1CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="14016" windowHeight="12336" xr2:uid="{D22A0316-DEF2-4435-89AB-CB5C2145279A}"/>
+    <workbookView xWindow="-15480" yWindow="-3210" windowWidth="15600" windowHeight="18720" xr2:uid="{D22A0316-DEF2-4435-89AB-CB5C2145279A}"/>
   </bookViews>
   <sheets>
     <sheet name="PessoasCadastradas" sheetId="2" r:id="rId1"/>
@@ -401,9 +401,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +463,7 @@
   <autoFilter ref="A1:G35" xr:uid="{22FEE9E8-9D7B-435E-946A-DFF57F06FC9A}">
     <filterColumn colId="4">
       <filters>
-        <filter val="tipoUsuario=Dono da Matriz"/>
+        <filter val="tipoUsuario=Medico"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -819,784 +818,784 @@
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
         <v>105</v>
       </c>
     </row>
